--- a/Complete-spreadsheets/EO/Fz-list-EO.xlsx
+++ b/Complete-spreadsheets/EO/Fz-list-EO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\EO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E815481B-41CF-4434-8729-D4949AF755C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E7B04D-1326-45B3-86D9-EB3B918E1D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,23 +497,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>55.034208221574858</v>
-      </c>
-      <c r="C2" s="3">
-        <v>23.84697915536405</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5.5669656129748333</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.4630236909208989</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.0497133565824051</v>
+      <c r="B2" s="4">
+        <v>70.174028119550215</v>
+      </c>
+      <c r="C2" s="4">
+        <v>14.00815996968036</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4.1317407141332447</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.785829972137404</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.96620427878864</v>
       </c>
       <c r="G2">
-        <v>87.960890037417045</v>
+        <v>93.065963054289867</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>27</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -536,22 +536,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>70.174028119550215</v>
+        <v>161.94724031020101</v>
       </c>
       <c r="C3" s="4">
-        <v>14.00815996968036</v>
+        <v>14.591031735144091</v>
       </c>
       <c r="D3" s="4">
-        <v>4.1317407141332447</v>
+        <v>10.43171312714939</v>
       </c>
       <c r="E3" s="4">
-        <v>2.785829972137404</v>
+        <v>3.560744646719296</v>
       </c>
       <c r="F3" s="4">
-        <v>1.96620427878864</v>
+        <v>2.1568300294611951</v>
       </c>
       <c r="G3">
-        <v>93.065963054289867</v>
+        <v>192.68755984867499</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -573,23 +573,23 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>34.767996406571307</v>
-      </c>
-      <c r="C4" s="3">
-        <v>7.6228398885045081</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4.1838908412029241</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.948352707411682</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.0233343803785062</v>
+      <c r="B4" s="4">
+        <v>43.561106213513057</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9.331218350894968</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.934142966491303</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4.3128880708056938</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.2796325985805699</v>
       </c>
       <c r="G4">
-        <v>51.54641422406894</v>
+        <v>63.418988200285582</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -611,23 +611,23 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>51.412380722758087</v>
-      </c>
-      <c r="C5" s="3">
-        <v>30.512945135903241</v>
-      </c>
-      <c r="D5" s="3">
-        <v>13.909500767527931</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4.6152258158510326</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.1001298139249251</v>
+      <c r="B5" s="4">
+        <v>11.887918144826161</v>
+      </c>
+      <c r="C5" s="4">
+        <v>38.276616579952552</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.6006060841361598</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.5078871844994</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.4540772489920171</v>
       </c>
       <c r="G5">
-        <v>102.5501822559653</v>
+        <v>58.727105242406267</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
@@ -649,23 +649,23 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>9.6910012286348284</v>
-      </c>
-      <c r="C6" s="3">
-        <v>9.339660265038102</v>
-      </c>
-      <c r="D6" s="3">
-        <v>6.5690485984475799</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3.0091441934155521</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.1505763751604068</v>
+      <c r="B6" s="4">
+        <v>84.84550147925809</v>
+      </c>
+      <c r="C6" s="4">
+        <v>15.56803049830283</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.1317108975695618</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.7361095708026948</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.616003912004615</v>
       </c>
       <c r="G6">
-        <v>30.75943066069647</v>
+        <v>112.8973563579378</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>13</v>
@@ -688,22 +688,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>161.94724031020101</v>
+        <v>57.819864599757139</v>
       </c>
       <c r="C7" s="4">
-        <v>14.591031735144091</v>
+        <v>16.027186266080111</v>
       </c>
       <c r="D7" s="4">
-        <v>10.43171312714939</v>
+        <v>19.056683412454571</v>
       </c>
       <c r="E7" s="4">
-        <v>3.560744646719296</v>
+        <v>7.0363437839061369</v>
       </c>
       <c r="F7" s="4">
-        <v>2.1568300294611951</v>
+        <v>2.8933513405945699</v>
       </c>
       <c r="G7">
-        <v>192.68755984867499</v>
+        <v>102.8334294027925</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -725,23 +725,23 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>81.840046467490723</v>
-      </c>
-      <c r="C8" s="3">
-        <v>31.591245363826481</v>
-      </c>
-      <c r="D8" s="3">
-        <v>13.42166400596745</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.1596275688496158</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2.2609561414596171</v>
+      <c r="B8" s="4">
+        <v>5.3625426817265733</v>
+      </c>
+      <c r="C8" s="4">
+        <v>53.535706626395793</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.417176511364854</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.3086649891911439</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.96743721723072</v>
       </c>
       <c r="G8">
-        <v>133.2735395475938</v>
+        <v>67.591528025909085</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>13</v>
@@ -764,22 +764,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>43.561106213513057</v>
+        <v>45.938829796410552</v>
       </c>
       <c r="C9" s="4">
-        <v>9.331218350894968</v>
+        <v>70.796828887217174</v>
       </c>
       <c r="D9" s="4">
-        <v>3.934142966491303</v>
+        <v>8.5839436139032621</v>
       </c>
       <c r="E9" s="4">
-        <v>4.3128880708056938</v>
+        <v>5.9346196628420893</v>
       </c>
       <c r="F9" s="4">
-        <v>2.2796325985805699</v>
+        <v>3.0929457424787601</v>
       </c>
       <c r="G9">
-        <v>63.418988200285582</v>
+        <v>134.34716770285189</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -802,22 +802,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>11.887918144826161</v>
+        <v>36.137899920012792</v>
       </c>
       <c r="C10" s="4">
-        <v>38.276616579952552</v>
+        <v>26.438872764379269</v>
       </c>
       <c r="D10" s="4">
-        <v>2.6006060841361598</v>
+        <v>31.978311707311061</v>
       </c>
       <c r="E10" s="4">
-        <v>3.5078871844994</v>
+        <v>5.7796854951362047</v>
       </c>
       <c r="F10" s="4">
-        <v>2.4540772489920171</v>
+        <v>3.457879408760244</v>
       </c>
       <c r="G10">
-        <v>58.727105242406267</v>
+        <v>103.7926492955995</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -840,22 +840,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>84.84550147925809</v>
+        <v>149.24077604651171</v>
       </c>
       <c r="C11" s="4">
-        <v>15.56803049830283</v>
+        <v>21.134375887163291</v>
       </c>
       <c r="D11" s="4">
-        <v>7.1317108975695618</v>
+        <v>14.34126678827716</v>
       </c>
       <c r="E11" s="4">
-        <v>2.7361095708026948</v>
+        <v>5.6390471443758594</v>
       </c>
       <c r="F11" s="4">
-        <v>2.616003912004615</v>
+        <v>3.7563041545964961</v>
       </c>
       <c r="G11">
-        <v>112.8973563579378</v>
+        <v>194.1117700209245</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -877,23 +877,23 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>460.90870869925971</v>
-      </c>
-      <c r="C12" s="3">
-        <v>45.851947405586003</v>
-      </c>
-      <c r="D12" s="3">
-        <v>10.664258910599649</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.8541179117512447</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2.8342727539105899</v>
+      <c r="B12" s="4">
+        <v>28.4699101218945</v>
+      </c>
+      <c r="C12" s="4">
+        <v>59.715474689726449</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4.821911295384016</v>
+      </c>
+      <c r="E12" s="4">
+        <v>6.0013637975136973</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.8680344281622281</v>
       </c>
       <c r="G12">
-        <v>525.11330568110725</v>
+        <v>102.8766943326809</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>18</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
@@ -916,22 +916,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>57.819864599757139</v>
+        <v>9.38597394958704</v>
       </c>
       <c r="C13" s="4">
-        <v>16.027186266080111</v>
+        <v>49.97431450824503</v>
       </c>
       <c r="D13" s="4">
-        <v>19.056683412454571</v>
+        <v>5.6927114920315356</v>
       </c>
       <c r="E13" s="4">
-        <v>7.0363437839061369</v>
+        <v>5.8382939273877712</v>
       </c>
       <c r="F13" s="4">
-        <v>2.8933513405945699</v>
+        <v>4.2953752136978611</v>
       </c>
       <c r="G13">
-        <v>102.8334294027925</v>
+        <v>75.186669090949238</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -953,23 +953,23 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3">
-        <v>20.478365601344311</v>
-      </c>
-      <c r="C14" s="3">
-        <v>9.0258196897702234</v>
-      </c>
-      <c r="D14" s="3">
-        <v>7.5588765316337927</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5.8967404496160949</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2.9269993932031282</v>
+      <c r="B14" s="4">
+        <v>26.022695214489751</v>
+      </c>
+      <c r="C14" s="4">
+        <v>84.373684120143224</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.3928319327038183</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.5219591400424184</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4.3097189865692567</v>
       </c>
       <c r="G14">
-        <v>45.88680166556756</v>
+        <v>124.6208893939485</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -992,22 +992,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>5.3625426817265733</v>
+        <v>7.8569824231420089</v>
       </c>
       <c r="C15" s="4">
-        <v>53.535706626395793</v>
+        <v>116.3582668722006</v>
       </c>
       <c r="D15" s="4">
-        <v>2.417176511364854</v>
+        <v>4.6835301544247283</v>
       </c>
       <c r="E15" s="4">
-        <v>3.3086649891911439</v>
+        <v>4.5067339054243138</v>
       </c>
       <c r="F15" s="4">
-        <v>2.96743721723072</v>
+        <v>4.4335440630056748</v>
       </c>
       <c r="G15">
-        <v>67.591528025909085</v>
+        <v>137.83905741819731</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1030,22 +1030,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>45.938829796410552</v>
+        <v>24.421993036219519</v>
       </c>
       <c r="C16" s="4">
-        <v>70.796828887217174</v>
+        <v>8.8670530047517158</v>
       </c>
       <c r="D16" s="4">
-        <v>8.5839436139032621</v>
+        <v>5.8593510270445481</v>
       </c>
       <c r="E16" s="4">
-        <v>5.9346196628420893</v>
+        <v>4.1592214157487799</v>
       </c>
       <c r="F16" s="4">
-        <v>3.0929457424787601</v>
+        <v>4.6772847753228088</v>
       </c>
       <c r="G16">
-        <v>134.34716770285189</v>
+        <v>47.984903259087368</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1071,22 +1071,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>36.137899920012792</v>
+        <v>72.593776317983753</v>
       </c>
       <c r="C17" s="4">
-        <v>26.438872764379269</v>
+        <v>16.25205251720763</v>
       </c>
       <c r="D17" s="4">
-        <v>31.978311707311061</v>
+        <v>10.369052136662891</v>
       </c>
       <c r="E17" s="4">
-        <v>5.7796854951362047</v>
+        <v>6.5126793270502654</v>
       </c>
       <c r="F17" s="4">
-        <v>3.457879408760244</v>
+        <v>4.7862609164514813</v>
       </c>
       <c r="G17">
-        <v>103.7926492955995</v>
+        <v>110.513821215356</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1109,22 +1109,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>149.24077604651171</v>
+        <v>47.766278629803999</v>
       </c>
       <c r="C18" s="4">
-        <v>21.134375887163291</v>
+        <v>17.346238728272908</v>
       </c>
       <c r="D18" s="4">
-        <v>14.34126678827716</v>
+        <v>5.9288599378187756</v>
       </c>
       <c r="E18" s="4">
-        <v>5.6390471443758594</v>
+        <v>4.4537291574793842</v>
       </c>
       <c r="F18" s="4">
-        <v>3.7563041545964961</v>
+        <v>4.8066222629495918</v>
       </c>
       <c r="G18">
-        <v>194.1117700209245</v>
+        <v>80.301728716324646</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>28.4699101218945</v>
+        <v>29.207329106617809</v>
       </c>
       <c r="C19" s="4">
-        <v>59.715474689726449</v>
+        <v>10.66113521634626</v>
       </c>
       <c r="D19" s="4">
-        <v>4.821911295384016</v>
+        <v>6.6960443079058862</v>
       </c>
       <c r="E19" s="4">
-        <v>6.0013637975136973</v>
+        <v>4.0207305552663124</v>
       </c>
       <c r="F19" s="4">
-        <v>3.8680344281622281</v>
+        <v>6.1577705511782241</v>
       </c>
       <c r="G19">
-        <v>102.8766943326809</v>
+        <v>56.743009737314487</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1184,23 +1184,23 @@
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
-        <v>199.45619868517429</v>
-      </c>
-      <c r="C20" s="3">
-        <v>75.809015947141162</v>
-      </c>
-      <c r="D20" s="3">
-        <v>16.128652819918258</v>
-      </c>
-      <c r="E20" s="3">
-        <v>6.583046757696863</v>
-      </c>
-      <c r="F20" s="3">
-        <v>4.2711446372725188</v>
+      <c r="B20" s="4">
+        <v>135.25282459247609</v>
+      </c>
+      <c r="C20" s="4">
+        <v>228.08121843853121</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8.1697858224302049</v>
+      </c>
+      <c r="E20" s="4">
+        <v>7.546310918270394</v>
+      </c>
+      <c r="F20" s="4">
+        <v>6.9119046659889261</v>
       </c>
       <c r="G20">
-        <v>302.24805884720308</v>
+        <v>385.96204443769682</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>13</v>
@@ -1223,22 +1223,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>9.38597394958704</v>
+        <v>67.411419726009001</v>
       </c>
       <c r="C21" s="4">
-        <v>49.97431450824503</v>
+        <v>91.188503773579058</v>
       </c>
       <c r="D21" s="4">
-        <v>5.6927114920315356</v>
+        <v>18.89676677592805</v>
       </c>
       <c r="E21" s="4">
-        <v>5.8382939273877712</v>
+        <v>7.1988440188194334</v>
       </c>
       <c r="F21" s="4">
-        <v>4.2953752136978611</v>
+        <v>7.6644114073503964</v>
       </c>
       <c r="G21">
-        <v>75.186669090949238</v>
+        <v>192.359945701686</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1261,22 +1261,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="4">
-        <v>26.022695214489751</v>
+        <v>181.94475399046169</v>
       </c>
       <c r="C22" s="4">
-        <v>84.373684120143224</v>
+        <v>52.66420890134038</v>
       </c>
       <c r="D22" s="4">
-        <v>5.3928319327038183</v>
+        <v>20.860980646772362</v>
       </c>
       <c r="E22" s="4">
-        <v>4.5219591400424184</v>
+        <v>16.57017272887057</v>
       </c>
       <c r="F22" s="4">
-        <v>4.3097189865692567</v>
+        <v>7.9566931550348086</v>
       </c>
       <c r="G22">
-        <v>124.6208893939485</v>
+        <v>279.99680942247983</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1298,23 +1298,23 @@
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3">
-        <v>42.419172966503517</v>
-      </c>
-      <c r="C23" s="3">
-        <v>48.168136465617543</v>
-      </c>
-      <c r="D23" s="3">
-        <v>18.578305432382479</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5.0239294156377907</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4.4010011698584517</v>
+      <c r="B23" s="4">
+        <v>9.8281262261727864</v>
+      </c>
+      <c r="C23" s="4">
+        <v>63.800350993810127</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5.5398545345823154</v>
+      </c>
+      <c r="E23" s="4">
+        <v>8.5510736294340006</v>
+      </c>
+      <c r="F23" s="4">
+        <v>12.906008277374021</v>
       </c>
       <c r="G23">
-        <v>118.59054544999979</v>
+        <v>100.6254136613732</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>13</v>
@@ -1337,22 +1337,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="4">
-        <v>7.8569824231420089</v>
+        <v>78.914781174259019</v>
       </c>
       <c r="C24" s="4">
-        <v>116.3582668722006</v>
+        <v>39.326835933430473</v>
       </c>
       <c r="D24" s="4">
-        <v>4.6835301544247283</v>
+        <v>67.853694229196975</v>
       </c>
       <c r="E24" s="4">
-        <v>4.5067339054243138</v>
+        <v>34.959288277585237</v>
       </c>
       <c r="F24" s="4">
-        <v>4.4335440630056748</v>
+        <v>44.26252245163807</v>
       </c>
       <c r="G24">
-        <v>137.83905741819731</v>
+        <v>265.31712206610968</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>32.955101849987308</v>
+        <v>55.034208221574858</v>
       </c>
       <c r="C25" s="3">
-        <v>22.20365003439526</v>
+        <v>23.84697915536405</v>
       </c>
       <c r="D25" s="3">
-        <v>27.940083859878619</v>
+        <v>5.5669656129748333</v>
       </c>
       <c r="E25" s="3">
-        <v>12.00831289081955</v>
+        <v>2.4630236909208989</v>
       </c>
       <c r="F25" s="3">
-        <v>4.6074574826721992</v>
+        <v>1.0497133565824051</v>
       </c>
       <c r="G25">
-        <v>99.714606117752936</v>
+        <v>87.960890037417045</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1413,22 +1413,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="3">
-        <v>156.0579959456995</v>
+        <v>34.767996406571307</v>
       </c>
       <c r="C26" s="3">
-        <v>26.0302260642565</v>
+        <v>7.6228398885045081</v>
       </c>
       <c r="D26" s="3">
-        <v>3.6651978327629049</v>
+        <v>4.1838908412029241</v>
       </c>
       <c r="E26" s="3">
-        <v>5.0949159837686206</v>
+        <v>2.948352707411682</v>
       </c>
       <c r="F26" s="3">
-        <v>4.6428727950115034</v>
+        <v>2.0233343803785062</v>
       </c>
       <c r="G26">
-        <v>195.491208621499</v>
+        <v>51.54641422406894</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
@@ -1450,23 +1450,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>24.421993036219519</v>
-      </c>
-      <c r="C27" s="4">
-        <v>8.8670530047517158</v>
-      </c>
-      <c r="D27" s="4">
-        <v>5.8593510270445481</v>
-      </c>
-      <c r="E27" s="4">
-        <v>4.1592214157487799</v>
-      </c>
-      <c r="F27" s="4">
-        <v>4.6772847753228088</v>
+      <c r="B27" s="3">
+        <v>51.412380722758087</v>
+      </c>
+      <c r="C27" s="3">
+        <v>30.512945135903241</v>
+      </c>
+      <c r="D27" s="3">
+        <v>13.909500767527931</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4.6152258158510326</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2.1001298139249251</v>
       </c>
       <c r="G27">
-        <v>47.984903259087368</v>
+        <v>102.5501822559653</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1475,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>13</v>
@@ -1488,23 +1488,23 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
-        <v>72.593776317983753</v>
-      </c>
-      <c r="C28" s="4">
-        <v>16.25205251720763</v>
-      </c>
-      <c r="D28" s="4">
-        <v>10.369052136662891</v>
-      </c>
-      <c r="E28" s="4">
-        <v>6.5126793270502654</v>
-      </c>
-      <c r="F28" s="4">
-        <v>4.7862609164514813</v>
+      <c r="B28" s="3">
+        <v>9.6910012286348284</v>
+      </c>
+      <c r="C28" s="3">
+        <v>9.339660265038102</v>
+      </c>
+      <c r="D28" s="3">
+        <v>6.5690485984475799</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3.0091441934155521</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2.1505763751604068</v>
       </c>
       <c r="G28">
-        <v>110.513821215356</v>
+        <v>30.75943066069647</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1513,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>13</v>
@@ -1526,23 +1526,23 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
-        <v>47.766278629803999</v>
-      </c>
-      <c r="C29" s="4">
-        <v>17.346238728272908</v>
-      </c>
-      <c r="D29" s="4">
-        <v>5.9288599378187756</v>
-      </c>
-      <c r="E29" s="4">
-        <v>4.4537291574793842</v>
-      </c>
-      <c r="F29" s="4">
-        <v>4.8066222629495918</v>
+      <c r="B29" s="3">
+        <v>81.840046467490723</v>
+      </c>
+      <c r="C29" s="3">
+        <v>31.591245363826481</v>
+      </c>
+      <c r="D29" s="3">
+        <v>13.42166400596745</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4.1596275688496158</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2.2609561414596171</v>
       </c>
       <c r="G29">
-        <v>80.301728716324646</v>
+        <v>133.2735395475938</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>17</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
@@ -1565,22 +1565,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>104.7769605794938</v>
+        <v>460.90870869925971</v>
       </c>
       <c r="C30" s="3">
-        <v>32.023110065944323</v>
+        <v>45.851947405586003</v>
       </c>
       <c r="D30" s="3">
-        <v>14.40115413061686</v>
+        <v>10.664258910599649</v>
       </c>
       <c r="E30" s="3">
-        <v>12.702175347154499</v>
+        <v>4.8541179117512447</v>
       </c>
       <c r="F30" s="3">
-        <v>4.8708142090648998</v>
+        <v>2.8342727539105899</v>
       </c>
       <c r="G30">
-        <v>168.7742143322744</v>
+        <v>525.11330568110725</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -1603,22 +1603,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>68.872827785265514</v>
+        <v>20.478365601344311</v>
       </c>
       <c r="C31" s="3">
-        <v>20.06333811767923</v>
+        <v>9.0258196897702234</v>
       </c>
       <c r="D31" s="3">
-        <v>4.621096859631165</v>
+        <v>7.5588765316337927</v>
       </c>
       <c r="E31" s="3">
-        <v>3.9417283402227259</v>
+        <v>5.8967404496160949</v>
       </c>
       <c r="F31" s="3">
-        <v>5.4228929424938714</v>
+        <v>2.9269993932031282</v>
       </c>
       <c r="G31">
-        <v>102.9218840452925</v>
+        <v>45.88680166556756</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -1641,22 +1641,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>61.210304294637019</v>
+        <v>199.45619868517429</v>
       </c>
       <c r="C32" s="3">
-        <v>13.860131057085621</v>
+        <v>75.809015947141162</v>
       </c>
       <c r="D32" s="3">
-        <v>5.5492852019461072</v>
+        <v>16.128652819918258</v>
       </c>
       <c r="E32" s="3">
-        <v>5.6687441110746173</v>
+        <v>6.583046757696863</v>
       </c>
       <c r="F32" s="3">
-        <v>5.7212990064969178</v>
+        <v>4.2711446372725188</v>
       </c>
       <c r="G32">
-        <v>92.009763671240279</v>
+        <v>302.24805884720308</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1678,23 +1678,23 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4">
-        <v>29.207329106617809</v>
-      </c>
-      <c r="C33" s="4">
-        <v>10.66113521634626</v>
-      </c>
-      <c r="D33" s="4">
-        <v>6.6960443079058862</v>
-      </c>
-      <c r="E33" s="4">
-        <v>4.0207305552663124</v>
-      </c>
-      <c r="F33" s="4">
-        <v>6.1577705511782241</v>
+      <c r="B33" s="3">
+        <v>42.419172966503517</v>
+      </c>
+      <c r="C33" s="3">
+        <v>48.168136465617543</v>
+      </c>
+      <c r="D33" s="3">
+        <v>18.578305432382479</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5.0239294156377907</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4.4010011698584517</v>
       </c>
       <c r="G33">
-        <v>56.743009737314487</v>
+        <v>118.59054544999979</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>8</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>13</v>
@@ -1717,22 +1717,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="3">
-        <v>133.76432891159121</v>
+        <v>32.955101849987308</v>
       </c>
       <c r="C34" s="3">
-        <v>40.273566429025379</v>
+        <v>22.20365003439526</v>
       </c>
       <c r="D34" s="3">
-        <v>10.725339910001161</v>
+        <v>27.940083859878619</v>
       </c>
       <c r="E34" s="3">
-        <v>6.564119821695515</v>
+        <v>12.00831289081955</v>
       </c>
       <c r="F34" s="3">
-        <v>6.5668325858348187</v>
+        <v>4.6074574826721992</v>
       </c>
       <c r="G34">
-        <v>197.8941876581481</v>
+        <v>99.714606117752936</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1754,23 +1754,23 @@
       <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="4">
-        <v>135.25282459247609</v>
-      </c>
-      <c r="C35" s="4">
-        <v>228.08121843853121</v>
-      </c>
-      <c r="D35" s="4">
-        <v>8.1697858224302049</v>
-      </c>
-      <c r="E35" s="4">
-        <v>7.546310918270394</v>
-      </c>
-      <c r="F35" s="4">
-        <v>6.9119046659889261</v>
+      <c r="B35" s="3">
+        <v>156.0579959456995</v>
+      </c>
+      <c r="C35" s="3">
+        <v>26.0302260642565</v>
+      </c>
+      <c r="D35" s="3">
+        <v>3.6651978327629049</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5.0949159837686206</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4.6428727950115034</v>
       </c>
       <c r="G35">
-        <v>385.96204443769682</v>
+        <v>195.491208621499</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>10</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
       </c>
       <c r="L35" t="s">
         <v>13</v>
@@ -1793,22 +1793,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>134.26574275247199</v>
+        <v>104.7769605794938</v>
       </c>
       <c r="C36" s="3">
-        <v>31.919916925015041</v>
+        <v>32.023110065944323</v>
       </c>
       <c r="D36" s="3">
-        <v>14.052059353711851</v>
+        <v>14.40115413061686</v>
       </c>
       <c r="E36" s="3">
-        <v>7.7549733125902911</v>
+        <v>12.702175347154499</v>
       </c>
       <c r="F36" s="3">
-        <v>7.0371373639545993</v>
+        <v>4.8708142090648998</v>
       </c>
       <c r="G36">
-        <v>195.0298297077438</v>
+        <v>168.7742143322744</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1831,22 +1831,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>112.03429882840901</v>
+        <v>68.872827785265514</v>
       </c>
       <c r="C37" s="3">
-        <v>21.291162943715481</v>
+        <v>20.06333811767923</v>
       </c>
       <c r="D37" s="3">
-        <v>5.1444682031390832</v>
+        <v>4.621096859631165</v>
       </c>
       <c r="E37" s="3">
-        <v>7.2538688853987212</v>
+        <v>3.9417283402227259</v>
       </c>
       <c r="F37" s="3">
-        <v>7.4166570057445513</v>
+        <v>5.4228929424938714</v>
       </c>
       <c r="G37">
-        <v>153.14045586640691</v>
+        <v>102.9218840452925</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1868,23 +1868,23 @@
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="4">
-        <v>67.411419726009001</v>
-      </c>
-      <c r="C38" s="4">
-        <v>91.188503773579058</v>
-      </c>
-      <c r="D38" s="4">
-        <v>18.89676677592805</v>
-      </c>
-      <c r="E38" s="4">
-        <v>7.1988440188194334</v>
-      </c>
-      <c r="F38" s="4">
-        <v>7.6644114073503964</v>
+      <c r="B38" s="3">
+        <v>61.210304294637019</v>
+      </c>
+      <c r="C38" s="3">
+        <v>13.860131057085621</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5.5492852019461072</v>
+      </c>
+      <c r="E38" s="3">
+        <v>5.6687441110746173</v>
+      </c>
+      <c r="F38" s="3">
+        <v>5.7212990064969178</v>
       </c>
       <c r="G38">
-        <v>192.359945701686</v>
+        <v>92.009763671240279</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1893,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>20</v>
-      </c>
-      <c r="K38" s="4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
       </c>
       <c r="L38" t="s">
         <v>13</v>
@@ -1907,22 +1907,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>51.997409929254957</v>
+        <v>133.76432891159121</v>
       </c>
       <c r="C39" s="3">
-        <v>20.74392684584279</v>
+        <v>40.273566429025379</v>
       </c>
       <c r="D39" s="3">
-        <v>23.9607657741319</v>
+        <v>10.725339910001161</v>
       </c>
       <c r="E39" s="3">
-        <v>10.805571250341741</v>
+        <v>6.564119821695515</v>
       </c>
       <c r="F39" s="3">
-        <v>7.8555099215783013</v>
+        <v>6.5668325858348187</v>
       </c>
       <c r="G39">
-        <v>115.3631837211497</v>
+        <v>197.8941876581481</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1945,22 +1945,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>100.00456042970811</v>
+        <v>134.26574275247199</v>
       </c>
       <c r="C40" s="3">
-        <v>22.719630576662389</v>
+        <v>31.919916925015041</v>
       </c>
       <c r="D40" s="3">
-        <v>13.194545840136181</v>
+        <v>14.052059353711851</v>
       </c>
       <c r="E40" s="3">
-        <v>9.2423270910288444</v>
+        <v>7.7549733125902911</v>
       </c>
       <c r="F40" s="3">
-        <v>7.9073284190998407</v>
+        <v>7.0371373639545993</v>
       </c>
       <c r="G40">
-        <v>153.0683923566354</v>
+        <v>195.0298297077438</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1983,22 +1983,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>41.509205555551567</v>
+        <v>112.03429882840901</v>
       </c>
       <c r="C41" s="3">
-        <v>15.40188656334918</v>
+        <v>21.291162943715481</v>
       </c>
       <c r="D41" s="3">
-        <v>7.59342368186757</v>
+        <v>5.1444682031390832</v>
       </c>
       <c r="E41" s="3">
-        <v>8.8232594759536696</v>
+        <v>7.2538688853987212</v>
       </c>
       <c r="F41" s="3">
-        <v>7.9253268428296266</v>
+        <v>7.4166570057445513</v>
       </c>
       <c r="G41">
-        <v>81.253102119551613</v>
+        <v>153.14045586640691</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2020,23 +2020,23 @@
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="4">
-        <v>181.94475399046169</v>
-      </c>
-      <c r="C42" s="4">
-        <v>52.66420890134038</v>
-      </c>
-      <c r="D42" s="4">
-        <v>20.860980646772362</v>
-      </c>
-      <c r="E42" s="4">
-        <v>16.57017272887057</v>
-      </c>
-      <c r="F42" s="4">
-        <v>7.9566931550348086</v>
+      <c r="B42" s="3">
+        <v>51.997409929254957</v>
+      </c>
+      <c r="C42" s="3">
+        <v>20.74392684584279</v>
+      </c>
+      <c r="D42" s="3">
+        <v>23.9607657741319</v>
+      </c>
+      <c r="E42" s="3">
+        <v>10.805571250341741</v>
+      </c>
+      <c r="F42" s="3">
+        <v>7.8555099215783013</v>
       </c>
       <c r="G42">
-        <v>279.99680942247983</v>
+        <v>115.3631837211497</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2045,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>21</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
       </c>
       <c r="L42" t="s">
         <v>13</v>
@@ -2059,22 +2059,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="3">
-        <v>28.5486593949528</v>
+        <v>100.00456042970811</v>
       </c>
       <c r="C43" s="3">
-        <v>11.311458971864621</v>
+        <v>22.719630576662389</v>
       </c>
       <c r="D43" s="3">
-        <v>7.910502097149096</v>
+        <v>13.194545840136181</v>
       </c>
       <c r="E43" s="3">
-        <v>20.914017228790069</v>
+        <v>9.2423270910288444</v>
       </c>
       <c r="F43" s="3">
-        <v>10.37122117208264</v>
+        <v>7.9073284190998407</v>
       </c>
       <c r="G43">
-        <v>79.055858864839223</v>
+        <v>153.0683923566354</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2097,22 +2097,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>94.296552165223574</v>
+        <v>41.509205555551567</v>
       </c>
       <c r="C44" s="3">
-        <v>14.8894012683723</v>
+        <v>15.40188656334918</v>
       </c>
       <c r="D44" s="3">
-        <v>16.614758117764911</v>
+        <v>7.59342368186757</v>
       </c>
       <c r="E44" s="3">
-        <v>18.78920663841215</v>
+        <v>8.8232594759536696</v>
       </c>
       <c r="F44" s="3">
-        <v>11.61226419421304</v>
+        <v>7.9253268428296266</v>
       </c>
       <c r="G44">
-        <v>156.20218238398601</v>
+        <v>81.253102119551613</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2135,22 +2135,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>52.89108290311222</v>
+        <v>28.5486593949528</v>
       </c>
       <c r="C45" s="3">
-        <v>37.657688558839723</v>
+        <v>11.311458971864621</v>
       </c>
       <c r="D45" s="3">
-        <v>29.357309738092109</v>
+        <v>7.910502097149096</v>
       </c>
       <c r="E45" s="3">
-        <v>21.6809342271135</v>
+        <v>20.914017228790069</v>
       </c>
       <c r="F45" s="3">
-        <v>11.66581367889532</v>
+        <v>10.37122117208264</v>
       </c>
       <c r="G45">
-        <v>153.25282910605279</v>
+        <v>79.055858864839223</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2172,23 +2172,23 @@
       <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="4">
-        <v>9.8281262261727864</v>
-      </c>
-      <c r="C46" s="4">
-        <v>63.800350993810127</v>
-      </c>
-      <c r="D46" s="4">
-        <v>5.5398545345823154</v>
-      </c>
-      <c r="E46" s="4">
-        <v>8.5510736294340006</v>
-      </c>
-      <c r="F46" s="4">
-        <v>12.906008277374021</v>
+      <c r="B46" s="3">
+        <v>94.296552165223574</v>
+      </c>
+      <c r="C46" s="3">
+        <v>14.8894012683723</v>
+      </c>
+      <c r="D46" s="3">
+        <v>16.614758117764911</v>
+      </c>
+      <c r="E46" s="3">
+        <v>18.78920663841215</v>
+      </c>
+      <c r="F46" s="3">
+        <v>11.61226419421304</v>
       </c>
       <c r="G46">
-        <v>100.6254136613732</v>
+        <v>156.20218238398601</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2197,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>23</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>13</v>
@@ -2211,22 +2211,22 @@
         <v>9</v>
       </c>
       <c r="B47" s="3">
-        <v>179.8556599088264</v>
+        <v>52.89108290311222</v>
       </c>
       <c r="C47" s="3">
-        <v>81.714322298995029</v>
+        <v>37.657688558839723</v>
       </c>
       <c r="D47" s="3">
-        <v>58.60261854049697</v>
+        <v>29.357309738092109</v>
       </c>
       <c r="E47" s="3">
-        <v>70.324934364156405</v>
+        <v>21.6809342271135</v>
       </c>
       <c r="F47" s="3">
-        <v>35.296795721338498</v>
+        <v>11.66581367889532</v>
       </c>
       <c r="G47">
-        <v>425.79433083381332</v>
+        <v>153.25282910605279</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
@@ -2249,22 +2249,22 @@
         <v>9</v>
       </c>
       <c r="B48" s="3">
-        <v>178.83466819907241</v>
+        <v>179.8556599088264</v>
       </c>
       <c r="C48" s="3">
-        <v>77.290318242406229</v>
+        <v>81.714322298995029</v>
       </c>
       <c r="D48" s="3">
-        <v>25.69571837824035</v>
+        <v>58.60261854049697</v>
       </c>
       <c r="E48" s="3">
-        <v>25.555691429147831</v>
+        <v>70.324934364156405</v>
       </c>
       <c r="F48" s="3">
-        <v>36.352770144344923</v>
+        <v>35.296795721338498</v>
       </c>
       <c r="G48">
-        <v>343.72916639321181</v>
+        <v>425.79433083381332</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K48" s="3">
         <v>1</v>
@@ -2286,23 +2286,23 @@
       <c r="A49" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="4">
-        <v>78.914781174259019</v>
-      </c>
-      <c r="C49" s="4">
-        <v>39.326835933430473</v>
-      </c>
-      <c r="D49" s="4">
-        <v>67.853694229196975</v>
-      </c>
-      <c r="E49" s="4">
-        <v>34.959288277585237</v>
-      </c>
-      <c r="F49" s="4">
-        <v>44.26252245163807</v>
+      <c r="B49" s="3">
+        <v>178.83466819907241</v>
+      </c>
+      <c r="C49" s="3">
+        <v>77.290318242406229</v>
+      </c>
+      <c r="D49" s="3">
+        <v>25.69571837824035</v>
+      </c>
+      <c r="E49" s="3">
+        <v>25.555691429147831</v>
+      </c>
+      <c r="F49" s="3">
+        <v>36.352770144344923</v>
       </c>
       <c r="G49">
-        <v>265.31712206610968</v>
+        <v>343.72916639321181</v>
       </c>
       <c r="H49">
         <v>0.25</v>
@@ -2311,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>12</v>
-      </c>
-      <c r="K49" s="4">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1</v>
       </c>
       <c r="L49" t="s">
         <v>13</v>
@@ -2359,8 +2359,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K55">
-    <sortCondition ref="F2:F55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
